--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_UT_SS.xlsx
@@ -152,9 +152,6 @@
     <t>SYMBOL_2000_SS_TEST</t>
   </si>
   <si>
-    <t>BBBKN3DD&amp;E</t>
-  </si>
-  <si>
     <t>BI_SYMBOL</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>Gt</t>
+  </si>
+  <si>
+    <t>1FDEU15H&amp;K</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,33 +659,33 @@
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>41</v>
@@ -694,13 +694,13 @@
         <v>2005</v>
       </c>
       <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>28</v>
@@ -712,13 +712,13 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>29</v>
@@ -790,7 +790,7 @@
         <v>39</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
@@ -820,6 +820,8 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="5"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>VIN</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>1FDEU15H&amp;K</t>
+  </si>
+  <si>
+    <t>STAT</t>
   </si>
 </sst>
 </file>
@@ -254,7 +257,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -263,6 +266,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -547,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,14 +573,15 @@
     <col min="23" max="23" width="22.21875" customWidth="1"/>
     <col min="24" max="24" width="20.88671875" customWidth="1"/>
     <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="16.21875" customWidth="1"/>
-    <col min="27" max="27" width="13.77734375" customWidth="1"/>
-    <col min="33" max="33" width="19.88671875" customWidth="1"/>
-    <col min="34" max="34" width="21.88671875" customWidth="1"/>
-    <col min="36" max="36" width="20.88671875" customWidth="1"/>
+    <col min="26" max="26" width="5.88671875" customWidth="1"/>
+    <col min="27" max="27" width="16.21875" customWidth="1"/>
+    <col min="28" max="28" width="13.77734375" customWidth="1"/>
+    <col min="34" max="34" width="19.88671875" customWidth="1"/>
+    <col min="35" max="35" width="21.88671875" customWidth="1"/>
+    <col min="37" max="37" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,40 +658,43 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -759,17 +770,17 @@
       <c r="Y2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="3">
-        <v>42</v>
+      <c r="Z2" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="AA2" s="3">
         <v>42</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="3">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>38</v>
@@ -780,20 +791,23 @@
       <c r="AF2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" s="4">
         <v>20150101</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="G3" s="3"/>
@@ -820,12 +834,13 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="7"/>
       <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="G4" s="3"/>
@@ -852,8 +867,9 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
-      <c r="AI4" s="3"/>
+      <c r="AG4" s="3"/>
       <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>VIN</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>STAT</t>
+  </si>
+  <si>
+    <t>CHOICE_TIER</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -554,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,13 +581,13 @@
     <col min="25" max="25" width="34.77734375" customWidth="1"/>
     <col min="26" max="26" width="5.88671875" customWidth="1"/>
     <col min="27" max="27" width="16.21875" customWidth="1"/>
-    <col min="28" max="28" width="13.77734375" customWidth="1"/>
-    <col min="34" max="34" width="19.88671875" customWidth="1"/>
-    <col min="35" max="35" width="21.88671875" customWidth="1"/>
-    <col min="37" max="37" width="20.88671875" customWidth="1"/>
+    <col min="28" max="29" width="13.77734375" customWidth="1"/>
+    <col min="35" max="35" width="19.88671875" customWidth="1"/>
+    <col min="36" max="36" width="21.88671875" customWidth="1"/>
+    <col min="38" max="38" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,34 +673,37 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -780,10 +789,10 @@
         <v>42</v>
       </c>
       <c r="AC2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>38</v>
@@ -794,20 +803,23 @@
       <c r="AG2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2" s="4">
         <v>20150101</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="G3" s="3"/>
@@ -835,12 +847,13 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="7"/>
       <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="G4" s="3"/>
@@ -868,8 +881,9 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
-      <c r="AJ4" s="3"/>
+      <c r="AH4" s="3"/>
       <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="58">
   <si>
     <t>VIN</t>
   </si>
@@ -195,13 +195,16 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,15 +226,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,11 +237,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -258,30 +249,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,10 +787,10 @@
       <c r="AH2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="3">
         <v>20150101</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AK2" s="3" t="s">
@@ -820,70 +801,352 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3">
+        <v>53080</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="3">
+        <v>8</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>214</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="3">
+        <v>2</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>20000101</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3">
+        <v>53080</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="3">
+        <v>8</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>214</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>42</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>42</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>20150101</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3">
+        <v>53080</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3">
+        <v>8</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>214</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="3">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>42</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>20160101</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>VIN</t>
   </si>
@@ -198,13 +198,16 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>SYMBOL_2000_SS_ENTRY_DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +225,12 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,13 +262,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -544,13 +554,13 @@
   <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
@@ -804,8 +814,8 @@
       <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C3" s="3">
         <v>2005</v>
@@ -920,8 +930,8 @@
       <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
+      <c r="B4" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C4" s="3">
         <v>2005</v>
@@ -1036,8 +1046,8 @@
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
+      <c r="B5" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="3">
         <v>2005</v>
@@ -1136,7 +1146,7 @@
         <v>50</v>
       </c>
       <c r="AI5" s="3">
-        <v>20160101</v>
+        <v>20190101</v>
       </c>
       <c r="AJ5" s="3" t="s">
         <v>39</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/uploadAddedVIN_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="58">
   <si>
     <t>VIN</t>
   </si>
@@ -198,16 +198,13 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>SYMBOL_2000_SS_ENTRY_DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,12 +222,6 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,14 +253,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -553,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,8 +804,8 @@
       <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>58</v>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C3" s="3">
         <v>2005</v>
@@ -930,8 +920,8 @@
       <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>58</v>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="3">
         <v>2005</v>
@@ -1046,8 +1036,8 @@
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>58</v>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="3">
         <v>2005</v>
